--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1418636.072747802</v>
+        <v>1476559.295309856</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6962969.928038978</v>
+        <v>7447923.156714332</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -713,7 +715,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>146.5653248725136</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>116.0198530582357</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>70.60344219155051</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -832,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>19.46041886672083</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>346.1714995899598</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.774426990978</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5415337866577</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>194.0194322524449</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1303,10 +1305,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>211.0745126298642</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.5903967740026</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1430,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1537,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>75.73201610192</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>22.40323921633644</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>101.3307376196609</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1856,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>82.56012880945237</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>47.24726165657607</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2053,7 +2055,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2093,13 +2095,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>75.41330364725482</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>60.29055953944252</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2536,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>106.3397188323756</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>55.81450188835453</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>107.8087278713803</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2804,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -3004,19 +3006,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>190.2997486767022</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.8123657859482</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,13 +3432,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3478,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>265.5672156808878</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3664,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>16.46657912888063</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>384.729330383028</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3791,16 +3793,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.89129473383261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>288.6594255344675</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4189,19 +4191,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>160.1662219696576</v>
+        <v>227.635750397087</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>568.8670150191533</v>
+        <v>456.8988997477842</v>
       </c>
       <c r="C2" t="n">
-        <v>546.0066890728575</v>
+        <v>434.0385738014884</v>
       </c>
       <c r="D2" t="n">
-        <v>526.7544722982618</v>
+        <v>414.7863570268928</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>392.8498212151544</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>371.7660434449587</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>407.101683866143</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1751.572604680641</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1394.083189806891</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>997.6918401072377</v>
+        <v>597.5782255566535</v>
       </c>
       <c r="X2" t="n">
-        <v>990.012245315389</v>
+        <v>589.8986307648048</v>
       </c>
       <c r="Y2" t="n">
-        <v>584.6749752702793</v>
+        <v>472.7068599989102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>416.2236218818665</v>
+        <v>425.3664405251916</v>
       </c>
       <c r="L3" t="n">
-        <v>416.2236218818665</v>
+        <v>425.3664405251916</v>
       </c>
       <c r="M3" t="n">
-        <v>572.914647509062</v>
+        <v>425.3664405251916</v>
       </c>
       <c r="N3" t="n">
-        <v>1123.5801824935</v>
+        <v>425.3664405251916</v>
       </c>
       <c r="O3" t="n">
-        <v>1674.245717477938</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462377</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>720.7977379486855</v>
+        <v>855.0190971226173</v>
       </c>
       <c r="C4" t="n">
-        <v>548.8251748276015</v>
+        <v>855.0190971226173</v>
       </c>
       <c r="D4" t="n">
-        <v>548.8251748276015</v>
+        <v>691.702324249388</v>
       </c>
       <c r="E4" t="n">
-        <v>382.616968980455</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7551947550154</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1411.582968342075</v>
       </c>
       <c r="V4" t="n">
-        <v>1464.556806640625</v>
+        <v>1129.871500950104</v>
       </c>
       <c r="W4" t="n">
-        <v>1189.704402813138</v>
+        <v>855.0190971226173</v>
       </c>
       <c r="X4" t="n">
-        <v>947.1405062589434</v>
+        <v>855.0190971226173</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.7977379486855</v>
+        <v>855.0190971226173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.9701437626245</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>511.1098178163286</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4565,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1770.875776931517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1770.875776931517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8185080541546</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3078922751886</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>874.3078922751886</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1424.973427259627</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1424.973427259627</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.4711417263379</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>789.4985786052539</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.502328002917</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>1187.813910036596</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>961.4711417263379</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>729.6507098898962</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>302.7499799031963</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>283.4977631286007</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>261.5612273168623</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>240.4774495466666</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,22 +4807,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>667.4947029893171</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4844,10 +4846,10 @@
         <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>1554.836344226536</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>1149.499074181426</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1699405917395</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>817.6261093758716</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>645.6535462547876</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>482.3367733815583</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>316.1285675344118</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089722</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089722</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089722</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1841.569626567507</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1561.385178067811</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1561.385178067811</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1286.532774240324</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1043.96887768613</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>817.6261093758716</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1193.790321420009</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>766.8895914333087</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>766.8895914333087</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>766.8895914333087</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559902</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3129.740230712748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2871.385321309161</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2513.89590643541</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2117.504556735757</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1705.784557903505</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1300.447287858395</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.128793458704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.128793458704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.128793458704</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>872.5704058565069</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M12" t="n">
-        <v>990.9088585947958</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.350470992599</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2136.875619950717</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C13" t="n">
-        <v>1964.903056829633</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D13" t="n">
-        <v>1801.586283956403</v>
+        <v>444.7764734742344</v>
       </c>
       <c r="E13" t="n">
-        <v>1635.378078109257</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="F13" t="n">
-        <v>1463.516303883817</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="G13" t="n">
-        <v>1297.259334178049</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="H13" t="n">
-        <v>1153.463065686204</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1337.713426856475</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>1692.402748150896</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2083.588543121146</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2461.080053997182</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2816.508182676945</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3234.107524839608</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3234.107524839608</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3234.107524839608</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>3234.107524839608</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>3234.107524839608</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>3070.800657354722</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>2795.948253527235</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>2553.38435697304</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y13" t="n">
-        <v>2327.041588662782</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.082942235008</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1190.182212248309</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>766.8895914333087</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>766.8895914333087</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>780.1904584722912</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.632070870094</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>2381.073683267897</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957705</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3211.477990277652</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3211.477990277652</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2853.988575403901</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2853.988575403901</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2442.268576571648</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.931306526538</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>655.1670770651317</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>693.0265871760246</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M15" t="n">
-        <v>693.0265871760246</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N15" t="n">
-        <v>693.0265871760246</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
-        <v>693.0265871760246</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>686.682795148426</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>514.7102320273419</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>514.7102320273419</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>514.7102320273419</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302473</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.09517790992</v>
+        <v>1992.337779732033</v>
       </c>
       <c r="U16" t="n">
-        <v>2245.09517790992</v>
+        <v>1712.153331232337</v>
       </c>
       <c r="V16" t="n">
-        <v>2081.788310425035</v>
+        <v>1430.441863840366</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>1155.589460012879</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>913.0255634586839</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>686.682795148426</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5519,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>601.2341827829796</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C19" t="n">
-        <v>429.2616196618956</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D19" t="n">
-        <v>345.8675501573982</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>416.0527580951347</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>249.7957883893668</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.306816359498</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>1017.742919805303</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>791.4001514950452</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5743,34 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5835,22 +5837,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675609</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5923,37 +5925,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T22" t="n">
-        <v>2174.777572415784</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U22" t="n">
-        <v>2174.777572415784</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V22" t="n">
-        <v>1893.066105023813</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.213701196326</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X22" t="n">
-        <v>1375.649804642131</v>
+        <v>742.8905159778188</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675609</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3516.406223561076</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>3516.406223561076</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>3516.406223561076</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>3985.312888425529</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>3742.748991871334</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>3516.406223561076</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,22 +6305,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>1748.774177950213</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>750.4259316760281</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>750.4259316760281</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
         <v>412.355951603442</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1550.684777446425</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.832373618938</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.934668698352</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>940.5919003880938</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6551,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.3984947971121</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>750.4259316760281</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
         <v>412.355951603442</v>
@@ -6652,19 +6654,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1629.98076389086</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.98076389086</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.128360063373</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>1112.564463509178</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>1112.564463509178</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>105.4776804749704</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
         <v>1194.79262694784</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1477.48047715319</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1477.48047715319</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3813.905540636431</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4659.050190787243</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076927</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>606.5662274551883</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C40" t="n">
-        <v>434.5936643341042</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D40" t="n">
-        <v>417.9607561231137</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E40" t="n">
-        <v>417.9607561231137</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7363,19 +7365,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.491264859194</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.638861031707</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1023.074964477512</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>796.7321961672538</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1634.479688140267</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1634.479688140267</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1211.187067325268</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1211.187067325268</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>786.0628855146679</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.632070870094</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.073683267897</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N41" t="n">
-        <v>3181.515295665699</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712747</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3129.740230712747</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2871.38532130916</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2871.38532130916</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2871.38532130916</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2459.665322476907</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2054.328052431797</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679213</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M42" t="n">
-        <v>865.1237628945948</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.565375292398</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>566.1176673012288</v>
+        <v>3751.878227437044</v>
       </c>
       <c r="C43" t="n">
-        <v>566.1176673012288</v>
+        <v>3579.90566431596</v>
       </c>
       <c r="D43" t="n">
-        <v>402.8008944279995</v>
+        <v>3416.588891442731</v>
       </c>
       <c r="E43" t="n">
-        <v>402.8008944279995</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F43" t="n">
-        <v>230.93912020256</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679213</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S43" t="n">
-        <v>2074.960130429055</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T43" t="n">
-        <v>2061.938620596901</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U43" t="n">
-        <v>1781.754172097205</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.042704705234</v>
+        <v>4443.239368286854</v>
       </c>
       <c r="W43" t="n">
-        <v>1225.190300877747</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="X43" t="n">
-        <v>982.6264043235524</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="Y43" t="n">
-        <v>756.2836360132944</v>
+        <v>3942.044196149109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1183.889011029886</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>892.3138337223432</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>469.0212129073435</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>469.0212129073435</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>780.1904584722912</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1269.301153779693</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>1269.301153779693</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>2069.742766177496</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2754.827044480652</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2397.337629606902</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.946279907249</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1589.226281074996</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1183.889011029886</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679213</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679213</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="L45" t="n">
-        <v>865.1237628945948</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="M45" t="n">
-        <v>1665.565375292398</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.3382943006532</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C46" t="n">
-        <v>646.3657311795691</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D46" t="n">
-        <v>646.3657311795691</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795691</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.686253450462</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W46" t="n">
-        <v>1060.902190854848</v>
+        <v>1310.556163447995</v>
       </c>
       <c r="X46" t="n">
-        <v>818.3382943006532</v>
+        <v>1067.9922668938</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.3382943006532</v>
+        <v>841.6494985835419</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>39.69551252341448</v>
       </c>
       <c r="P2" t="n">
-        <v>86.31943126580316</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8058,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>412.9692391190648</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3705437721214</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8137,13 +8139,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>259.1183965798071</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
@@ -8313,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>455.2848447234538</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8453,13 +8455,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>111.3736009736648</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8471,7 +8473,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>97.94106200967602</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>780.1861952483933</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241315</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
-        <v>142.6305711570642</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234436</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425248</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093337</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>780.1861952483933</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>60.75701611917185</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9249,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>700.5970200580485</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9723,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335786</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9953,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9963,13 +9965,13 @@
         <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>185.6255543726317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>883.9207714806259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>26.3038179559056</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10589,25 +10591,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>743.9259979858332</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425246</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093335</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443478</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>90.51442316805191</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222297</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234433</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>233.0753299089942</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>531.4824702806461</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241313</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222297</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>231.2464684003136</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>310.0594838746122</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.62628970500715</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>196.3130760294767</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.81241886352426</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>79.12347633504179</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.11104415035108</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.83953384261832</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>180.6153947569165</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24373,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.7641609568365</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>132.4498071365905</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>132.3295297172726</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>87.08285533799656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.2669748412072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>6.53666410832426</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.2170260156164</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>15.56634140341788</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25834,22 +25836,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>228.0146595625264</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>133.9722971523653</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>111.9376578195545</v>
+        <v>44.46812939212515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>634178.6474314905</v>
+        <v>629720.5762129935</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>480426.5797284678</v>
+        <v>647927.0835253517</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>480426.5797284677</v>
+        <v>647927.0835253517</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647927.0835253517</v>
+        <v>647927.0835253516</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>647927.0835253516</v>
+        <v>647927.0835253517</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647927.0835253516</v>
+        <v>647927.0835253517</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>480426.5797284677</v>
+        <v>647927.0835253517</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>480426.5797284677</v>
+        <v>647927.0835253517</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083725</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>312571.8840020595</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020594</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="G2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="H2" t="n">
         <v>421522.8023530853</v>
       </c>
-      <c r="H2" t="n">
-        <v>421522.8023530854</v>
-      </c>
       <c r="I2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="J2" t="n">
         <v>421522.8023530855</v>
       </c>
-      <c r="J2" t="n">
-        <v>421522.8023530853</v>
-      </c>
       <c r="K2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="L2" t="n">
-        <v>421522.8023530852</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="M2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="N2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="O2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="P2" t="n">
         <v>421522.8023530853</v>
-      </c>
-      <c r="O2" t="n">
-        <v>312571.8840020592</v>
-      </c>
-      <c r="P2" t="n">
-        <v>312571.8840020595</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346224</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537382</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191243.7287526203</v>
+        <v>203366.9722795535</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26424,40 +26426,40 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>64241.80185904328</v>
+        <v>86696.74064784779</v>
       </c>
       <c r="F4" t="n">
-        <v>64241.80185904328</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="G4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="H4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="H4" t="n">
-        <v>86696.74064784774</v>
-      </c>
       <c r="I4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="N4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>64241.80185904328</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="P4" t="n">
-        <v>64241.80185904328</v>
+        <v>86696.74064784775</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756202</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756202</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8262.712196413253</v>
+        <v>8299.109837066528</v>
       </c>
       <c r="C6" t="n">
-        <v>178142.0212183241</v>
+        <v>154735.1875447115</v>
       </c>
       <c r="D6" t="n">
-        <v>178142.0212183241</v>
+        <v>178142.0212183239</v>
       </c>
       <c r="E6" t="n">
-        <v>123840.6966119919</v>
+        <v>41336.64296016737</v>
       </c>
       <c r="F6" t="n">
-        <v>199171.6477654541</v>
+        <v>257075.9995168079</v>
       </c>
       <c r="G6" t="n">
-        <v>128185.5997052673</v>
+        <v>257075.9995168079</v>
       </c>
       <c r="H6" t="n">
+        <v>257075.9995168078</v>
+      </c>
+      <c r="I6" t="n">
+        <v>257075.9995168078</v>
+      </c>
+      <c r="J6" t="n">
+        <v>130498.7309365193</v>
+      </c>
+      <c r="K6" t="n">
+        <v>238429.3991597882</v>
+      </c>
+      <c r="L6" t="n">
         <v>257075.999516808</v>
       </c>
-      <c r="I6" t="n">
-        <v>257075.9995168081</v>
-      </c>
-      <c r="J6" t="n">
-        <v>111542.3295819914</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>77012.12806164021</v>
+      </c>
+      <c r="N6" t="n">
+        <v>257075.999516808</v>
+      </c>
+      <c r="O6" t="n">
+        <v>257075.9995168079</v>
+      </c>
+      <c r="P6" t="n">
         <v>257075.9995168078</v>
-      </c>
-      <c r="L6" t="n">
-        <v>257075.9995168077</v>
-      </c>
-      <c r="M6" t="n">
-        <v>194202.0625514341</v>
-      </c>
-      <c r="N6" t="n">
-        <v>257075.9995168079</v>
-      </c>
-      <c r="O6" t="n">
-        <v>199171.6477654539</v>
-      </c>
-      <c r="P6" t="n">
-        <v>199171.6477654542</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099019</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099019</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099017</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099017</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943078</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629549</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943078</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629549</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>109.2060354370383</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>285.2640442864229</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>93.94268159712446</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>259.4339338513306</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>7.743021135053198</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>141.3294527982341</v>
       </c>
       <c r="X7" t="n">
-        <v>225.5967238019952</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>206.276239534001</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>29.83144166649475</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28725,7 +28727,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.4448930198322e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="P2" t="n">
-        <v>48.74406945557187</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>390.5700052857314</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34859,13 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>236.5429566883213</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>245.6677613624788</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>432.5378064344753</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>73.06155854104185</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>75.42597529544646</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>742.9065724139473</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099019</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099019</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
-        <v>119.5337906447362</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099019</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099019</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099019</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>742.9065724139473</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711539</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35887,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36293,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977433</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212506</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>846.4895085811942</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>3.207037443577619</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37309,25 +37311,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>706.6463751513871</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099017</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099017</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099017</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>53.12346381202781</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099017</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>494.0512073812143</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099017</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099017</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>209.903440186772</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476559.295309856</v>
+        <v>1475862.634104765</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114753</v>
+        <v>612367.9462114751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7447923.156714332</v>
+        <v>7447923.156714333</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>163.1470548324543</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>116.0198530582357</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>70.60344219155051</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>63.85335032999381</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>51.28180484925447</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>74.96458278231303</v>
       </c>
       <c r="W7" t="n">
-        <v>130.774426990978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1135,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>124.0261038403751</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>257.4638774372656</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610192</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>144.7456825169621</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3307376196609</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>175.6665542587261</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165657607</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2095,13 +2095,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725482</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.87597792716814</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>120.1623903431339</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.81450188835453</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3520,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869526</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>38.43078274552268</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4033,13 +4033,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>102.0412378013777</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>227.635750397087</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8988997477842</v>
+        <v>124.1336499652903</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014884</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268928</v>
+        <v>82.02110724439888</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151544</v>
+        <v>60.08457143266048</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449587</v>
+        <v>39.00079366246479</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>517.6410595347462</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516411</v>
+        <v>996.5799837771749</v>
       </c>
       <c r="N2" t="n">
-        <v>880.2445183516411</v>
+        <v>1475.518908019604</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873576</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1714.181193660507</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1455.826284256919</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563066</v>
+        <v>1098.336869383169</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566535</v>
+        <v>701.9455196835156</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648048</v>
+        <v>694.2659248916669</v>
       </c>
       <c r="Y2" t="n">
-        <v>472.7068599989102</v>
+        <v>288.9286548465573</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231743</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="K3" t="n">
-        <v>425.3664405251916</v>
+        <v>789.3385488143374</v>
       </c>
       <c r="L3" t="n">
-        <v>425.3664405251916</v>
+        <v>1268.277473056766</v>
       </c>
       <c r="M3" t="n">
-        <v>425.3664405251916</v>
+        <v>1747.216397299195</v>
       </c>
       <c r="N3" t="n">
-        <v>425.3664405251916</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="O3" t="n">
-        <v>904.3053647676197</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>855.0190971226173</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="C4" t="n">
-        <v>855.0190971226173</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="D4" t="n">
-        <v>691.702324249388</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
         <v>620.3857159750945</v>
@@ -4485,55 +4485,55 @@
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>165.7127968735022</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>520.4021181679229</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381714</v>
+        <v>911.5879131381737</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014207</v>
+        <v>1289.07942401421</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.50755269397</v>
+        <v>1644.507552693973</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1764.971717135009</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1521.632369360909</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342075</v>
+        <v>1241.447920861213</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950104</v>
+        <v>959.736453469242</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226173</v>
+        <v>684.8840496417549</v>
       </c>
       <c r="X4" t="n">
-        <v>855.0190971226173</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="Y4" t="n">
-        <v>855.0190971226173</v>
+        <v>620.3857159750945</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4573,16 +4573,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1006.023847611597</v>
+      </c>
+      <c r="O5" t="n">
         <v>1556.689382596036</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2107.354917580474</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N6" t="n">
         <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>717.9063049747683</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>545.9337418536843</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4725,7 +4725,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
         <v>328.5171544792433</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1651.831342378774</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>1376.978938551287</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>1134.415041997092</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>908.072273686834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>638.1652587604844</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>615.3049328141886</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>596.052716039593</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>574.1161802278546</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4807,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4995,19 +4995,19 @@
         <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="11">
@@ -5053,13 +5053,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5068,16 +5068,16 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
         <v>3777.607131232208</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.0932463474637</v>
+        <v>922.3984947971121</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0932463474637</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7764734742344</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E13" t="n">
-        <v>278.5682676270879</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>278.5682676270879</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>278.5682676270879</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1856.323532201118</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1581.471128373631</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.601983369787</v>
+        <v>1338.907231819436</v>
       </c>
       <c r="Y13" t="n">
-        <v>798.2592150595294</v>
+        <v>1112.564463509178</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
         <v>137.1995846623573</v>
@@ -5281,16 +5281,16 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
         <v>3833.214576747414</v>
@@ -5357,25 +5357,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>939.4897558901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>939.4897558901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>686.682795148426</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C16" t="n">
-        <v>514.7102320273419</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D16" t="n">
-        <v>514.7102320273419</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>514.7102320273419</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5442,46 +5442,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302473</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.337779732033</v>
+        <v>2105.274776921254</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.153331232337</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.441863840366</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.589460012879</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X16" t="n">
-        <v>913.0255634586839</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y16" t="n">
-        <v>686.682795148426</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2110.0395278175</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416583</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951347</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7957883893668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
         <v>1828.971033901635</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675609</v>
+        <v>496.5168264363603</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>324.5442633152763</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>324.5442633152763</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>324.5442633152763</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>152.6824890898368</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>152.6824890898368</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>152.6824890898368</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5916,13 +5916,13 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302472</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
         <v>1865.116398656297</v>
@@ -5937,25 +5937,25 @@
         <v>2235.677127506133</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025268</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251168</v>
+        <v>1992.337779732033</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751472</v>
+        <v>1712.153331232337</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359501</v>
+        <v>1430.441863840366</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320137</v>
+        <v>1155.589460012879</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778188</v>
+        <v>913.0255634586839</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675609</v>
+        <v>686.682795148426</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
         <v>1828.971033901635</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6499,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6943,16 +6943,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
         <v>4541.493855905342</v>
@@ -7019,25 +7019,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446665</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714372</v>
+        <v>312.9834601014931</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714372</v>
+        <v>312.9834601014931</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>141.1216858760535</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,13 +7399,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7420,10 +7420,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2856.963518260713</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
         <v>3833.214576747414</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5299206506891</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5299206506891</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N42" t="n">
         <v>1446.844867123559</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3751.878227437044</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3579.90566431596</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3416.588891442731</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3250.380685595584</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4591.611874017632</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4443.239368286854</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4168.386964459367</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>4168.386964459367</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3942.044196149109</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7657,10 +7657,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O44" t="n">
         <v>3833.214576747414</v>
@@ -7684,7 +7684,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
         <v>3777.607131232208</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3313.894682672831</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3313.894682672831</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3509.456675241458</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L45" t="n">
-        <v>3509.456675241458</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M45" t="n">
-        <v>3509.456675241458</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N45" t="n">
-        <v>3509.456675241458</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O45" t="n">
-        <v>4398.937953252929</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>841.6494985835419</v>
+        <v>543.5554397491881</v>
       </c>
       <c r="C46" t="n">
-        <v>841.6494985835419</v>
+        <v>371.582876628104</v>
       </c>
       <c r="D46" t="n">
-        <v>678.3327257103126</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7818,40 +7818,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U46" t="n">
-        <v>1822.202732251165</v>
+        <v>1759.191944545165</v>
       </c>
       <c r="V46" t="n">
-        <v>1540.491264859194</v>
+        <v>1477.480477153194</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.556163447995</v>
+        <v>1202.628073325707</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.9922668938</v>
+        <v>960.0641767715116</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.6494985835419</v>
+        <v>733.7214084612536</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865914</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540534003</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884144</v>
       </c>
       <c r="O2" t="n">
-        <v>39.69551252341448</v>
+        <v>501.6211175340746</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>412.9692391190648</v>
+        <v>506.1759249873018</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.291777868198</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662964</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>39.68046103064163</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587965</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094642</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1183965798071</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8221,19 +8221,19 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,10 +8546,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8701,7 +8701,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9005,28 +9005,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,7 +9497,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>41.78793084289327</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,22 +10427,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>171.1290763038224</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10451,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10667,7 +10667,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>791.8999401147988</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766268</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500715</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>134.1486702010892</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352426</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>65.23940003763292</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415035108</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384261832</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>48.89490464995865</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>68.10191868181111</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365905</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359623262</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>126.1636172631875</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>59.64236734311925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939212515</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>629720.5762129935</v>
+        <v>629720.5762129936</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>647927.0835253516</v>
+        <v>647927.0835253517</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647927.0835253517</v>
+        <v>647927.0835253518</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083722</v>
+        <v>436832.0010083724</v>
       </c>
       <c r="D2" t="n">
         <v>436832.0010083723</v>
@@ -26325,37 +26325,37 @@
         <v>421522.8023530854</v>
       </c>
       <c r="F2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="G2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="H2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="I2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="J2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="K2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="L2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="M2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="N2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="O2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="P2" t="n">
         <v>421522.8023530855</v>
-      </c>
-      <c r="K2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="L2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421522.8023530854</v>
-      </c>
-      <c r="N2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="O2" t="n">
-        <v>421522.8023530854</v>
-      </c>
-      <c r="P2" t="n">
-        <v>421522.8023530853</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361208</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701968</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795535</v>
+        <v>203366.9722795534</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26426,40 +26426,40 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>86696.74064784779</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
+        <v>86696.74064784776</v>
+      </c>
+      <c r="J4" t="n">
         <v>86696.74064784778</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86696.74064784774</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="P4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216127</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8299.109837066528</v>
+        <v>8299.109837066266</v>
       </c>
       <c r="C6" t="n">
-        <v>154735.1875447115</v>
+        <v>154735.1875447119</v>
       </c>
       <c r="D6" t="n">
         <v>178142.0212183239</v>
       </c>
       <c r="E6" t="n">
-        <v>41336.64296016737</v>
+        <v>41285.61229798304</v>
       </c>
       <c r="F6" t="n">
-        <v>257075.9995168079</v>
+        <v>257024.9688546234</v>
       </c>
       <c r="G6" t="n">
-        <v>257075.9995168079</v>
+        <v>257024.9688546234</v>
       </c>
       <c r="H6" t="n">
-        <v>257075.9995168078</v>
+        <v>257024.9688546234</v>
       </c>
       <c r="I6" t="n">
-        <v>257075.9995168078</v>
+        <v>257024.9688546236</v>
       </c>
       <c r="J6" t="n">
-        <v>130498.7309365193</v>
+        <v>130447.7002743347</v>
       </c>
       <c r="K6" t="n">
-        <v>238429.3991597882</v>
+        <v>238378.3684976037</v>
       </c>
       <c r="L6" t="n">
-        <v>257075.999516808</v>
+        <v>257024.9688546235</v>
       </c>
       <c r="M6" t="n">
-        <v>77012.12806164021</v>
+        <v>76961.09739945577</v>
       </c>
       <c r="N6" t="n">
-        <v>257075.999516808</v>
+        <v>257024.9688546234</v>
       </c>
       <c r="O6" t="n">
-        <v>257075.9995168079</v>
+        <v>257024.9688546235</v>
       </c>
       <c r="P6" t="n">
-        <v>257075.9995168078</v>
+        <v>257024.9688546237</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>252.5028258161605</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>285.2640442864229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>93.94268159712446</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>176.2849072586591</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>167.4345103965587</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>203.9297699357384</v>
       </c>
       <c r="W7" t="n">
-        <v>141.3294527982341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>296.8468361521187</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27909,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.1659342747064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>21.4304752807858</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -30759,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30890,7 +30890,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="O2" t="n">
-        <v>2.304553167390384</v>
+        <v>464.2301581780505</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>390.5700052857314</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18.33743281709997</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567522</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>236.5429566883213</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34941,19 +34941,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>48.74406945557187</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>533.7539620806207</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35725,28 +35725,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35810,7 +35810,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.272041711539</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115389</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36293,7 +36293,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977433</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37387,7 +37387,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>754.4686772153671</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432935</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38095,10 +38095,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404439</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
